--- a/Output/Updated_Template.xlsx
+++ b/Output/Updated_Template.xlsx
@@ -1,127 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karthik/Documents/Python Automation/Output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8A3A49-3E67-6740-9B00-DB2FA77FA958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SFDC Data" sheetId="1" r:id="rId1"/>
+    <sheet name="SFDC Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>SFID</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>Opportunity Amount</t>
-  </si>
-  <si>
-    <t>Stage</t>
-  </si>
-  <si>
-    <t>Owner Name</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Created Date</t>
-  </si>
-  <si>
-    <t>Last Modified Date</t>
-  </si>
-  <si>
-    <t>SF12345</t>
-  </si>
-  <si>
-    <t>ABC Corp</t>
-  </si>
-  <si>
-    <t>Qualified</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>SF67890</t>
-  </si>
-  <si>
-    <t>XYZ Inc.</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>SF98765</t>
-  </si>
-  <si>
-    <t>DEF Ltd.</t>
-  </si>
-  <si>
-    <t>Prospect</t>
-  </si>
-  <si>
-    <t>Mike Johnson</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -139,25 +62,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -477,117 +460,1958 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H4"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Account Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SFID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Created Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opportunity Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Opportunity Description</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Group SBU</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Created By</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Proposed Sub. Date</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Domain Practice</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Tech Practice</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Solution SPOCs</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Delivery SPOC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Proposal Owner</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Proposal Writer</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Orals SPOC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Bid Director</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Proposal Updates</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Proposal Status</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Sub. Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Commercial Value</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>DSC</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Opportunity Stage</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Post Sub. Activity</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Est. Deal Value</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Large Deal</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
+      <c r="AF1" s="1" t="n"/>
+      <c r="AG1" s="1" t="n"/>
+      <c r="AH1" s="1" t="n"/>
+      <c r="AI1" s="1" t="n"/>
+      <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="n"/>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Rodriguez, Figueroa and Sanchez</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FD5166E6</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>drive collaborative action-items</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Surface attention attack technology.</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Christopher Lynch</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Curtis Buchanan</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Andrea Hall</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Raymond Hancock</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Sheila Pollard</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Raymond Bell</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="S2" s="4" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Stage 3</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v/>
+      </c>
+      <c r="AC2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Doyle Ltd</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>D7C524A5</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>generate collaborative e-markets</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Build three east organization people information.</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Michael Jimenez</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Holly Shaw</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Rick Lawrence</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>April Booth</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>James Chase</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Meghan Anthony</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="S3" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mcclain, Miller and Henderson</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>50C187FC</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>aggregate mission-critical platforms</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>North first end prove fire enter capital population.</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Crystal Little</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Christopher Sloan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Christina Wilson</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Anthony Stone</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Evan Kennedy</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Alexander Wiley</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="S4" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Stage 2</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Davis and Sons</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>E059A0EE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>repurpose user-centric convergence</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>First sell authority leader your you available.</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Michael Nolan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Tracy Phillips</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Chase Baker</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Kathleen Ramos</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Jane Mcneil</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Kevin Terrell</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="S5" s="4" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Guzman, Hoffman and Baldwin</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EA1FCA65</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>brand transparent bandwidth</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Media car give attention each.</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Dwayne Payne</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Regina Mcdonald</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Anthony Sparks</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Derek Anderson</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Marissa Hernandez</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Kyle Reed</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gardner, Robinson and Lawrence</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8FB5D27B</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cultivate scalable methodologies</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Citizen street region particularly would.</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Tony Huerta</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Paul Perez</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Samantha Morse</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Stanley Washington</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Beth Sanford</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Jessica Joyce</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="S7" s="4" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Stage 3</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Blake and Sons</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>663F1C97</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>visualize mission-critical markets</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Account stage federal professional voice care break.</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Victor Vaughn</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Megan Sanders</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>John Torres</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Mark Lloyd</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Brian Kirk</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Steven Lee</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="S8" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Stage 2</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Henderson, Ramirez and Lewis</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1745D6D8</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>strategize cross-platform platforms</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Score choice example decision.</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Eric Kidd</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Kristin Davis</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Dillon Fernandez</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Emily Smith</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Thomas Smith</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Jeffrey Meyer</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="S9" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Garcia-James</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CAC5B68C</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>incentivize dynamic solutions</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Data plant enough major town suffer.</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Ashley James</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Dennis Martinez</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Kyle Preston</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Danny Skinner</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Seth Booker</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Melissa Bentley</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="S10" s="4" t="inlineStr">
+        <is>
+          <t>2024-01-21</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Abbott-Munoz</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FF01CF99</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>incubate customized channels</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Plant stop analysis four.</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Edward Lyons</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Paul Baker</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Lindsey Johnson</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Travis Holland</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Richard Baker</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Christina Reynolds</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="S11" s="4" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Stage 3</t>
+        </is>
+      </c>
+      <c r="W11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Blair PLC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>02F06B90</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>brand viral niches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pm energy scientist necessary.</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Ronald Foster</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Mark Watson</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Michael Valencia</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Timothy Carter</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Jennifer Miller</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Tammie Hanson</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="S12" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>5</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dudley Group</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>444EA7C8</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>target interactive partnerships</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Night born war real chance along.</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sean Osborne</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Kaitlyn Harvey</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Alicia Hubbard</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Jennifer Olson</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Michael Ferguson</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Belinda Mccullough</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="S13" s="4" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Arnold Ltd</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>74273CA3</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>grow mission-critical markets</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Old challenge camera final together someone.</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Susan Mcgee</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Erin Bishop</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Laura Hines</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Jesus Thomas</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Lori Clay</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Mary Nguyen</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="S14" s="4" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mcclure, Ward and Lee</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8026695F</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>visualize value-added infrastructures</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Together decide economic.</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Stephanie Parsons</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Madison Marshall</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Joseph Ramos</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Kyle Francis</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Joshua Williamson II</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Kristen Lee</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="S15" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Stage 2</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Williams and Sons</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4C66E0A8</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>re-contextualize web-enabled communities</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Government nice themselves wind.</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Robert Robinson</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Marie Wilson</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Zachary Graham</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Benjamin Barton</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Donna Perez</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Jamie Adkins</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="S16" s="4" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Galloway-Wyatt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>C333E861</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>deploy holistic info-mediaries</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Understand door class son.</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v/>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>David Campos</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Andrew Ferrell</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Tracy Harrison</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Gina French</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>William Hodges</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Keith Sullivan</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="S17" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Stage 3</t>
+        </is>
+      </c>
+      <c r="W17" t="n">
+        <v/>
+      </c>
+      <c r="AC17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>James Group</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>00257AD1</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>architect wireless markets</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Thing agent say forward.</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Melanie Taylor</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>David Medina</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Frank Garcia</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Aaron Barber</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Ashlee Jackson</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Elizabeth Clark</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="S18" s="4" t="inlineStr">
+        <is>
+          <t>2024-10-26</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Stage 2</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v/>
+      </c>
+      <c r="AC18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Flowers, Martin and Kelly</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>E0F3EAB0</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>leverage enterprise synergies</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Soon ten specific environment skin blue.</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Mark Williams</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Jacob Avery</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Jason Simpson</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lauren Keller</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Allen Nguyen</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Lisa Morris</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="S19" s="4" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v/>
+      </c>
+      <c r="AC19" t="n">
+        <v/>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3">
-        <v>44927</v>
-      </c>
-      <c r="H2" s="3">
-        <v>45056</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Adams, Zuniga and Wong</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>E0C53CB8</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>synergize back-end bandwidth</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Teach develop staff.</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v/>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Amanda Diaz</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Kimberly Matthews</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Jennifer Hodges</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Jill Washington</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Ian Jordan</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Michael Dixon</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="S20" s="4" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v/>
+      </c>
+      <c r="AC20" t="n">
+        <v/>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>250000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3">
-        <v>44972</v>
-      </c>
-      <c r="H3" s="3">
-        <v>45061</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2">
-        <v>50000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3">
-        <v>45005</v>
-      </c>
-      <c r="H4" s="3">
-        <v>45078</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Reid, Ferguson and Sanchez</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>11B7E948</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>envisioneer cutting-edge schemas</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Glass star the development process huge everything.</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v/>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Theodore Murphy</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Stacey Pena</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Brandon King</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Phillip Bennett</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Jason Maldonado</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Toni Fitzgerald</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="S21" s="4" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Stage 2</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v/>
+      </c>
+      <c r="AC21" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
